--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Models to Compare Fractions 5.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Models to Compare Fractions 5.xlsx_with_dialog_acts.xlsx
@@ -927,12 +927,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1345,12 +1345,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
